--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/4_Ağrı_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/4_Ağrı_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F25C026-D0F3-49E1-8D04-7812D1F17CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E5A7729-7560-4EFD-9877-8BFC2F77E62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{13CBAD44-9BCA-40BE-B320-3E2895A1A5D4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{6FA30AD1-96D6-4A8D-A78A-11945989BAC6}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -947,15 +947,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{4E75264D-C716-4AA0-A9CC-476C0A0A625D}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3A1C909F-237B-4C5E-8911-0E7CA291D087}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{276E2862-D9B1-4A35-99F0-7EDC27E81863}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{BE6B8B41-DA9D-4820-8D3D-49C136CB9856}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{C71F2247-61D2-4BE4-AE30-BBCCC840BC0B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{61C7C645-FB35-4619-A570-4F10933D804B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{CB533214-CED6-4B4A-8DF0-6FA8B4610129}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{DBCB6787-E980-450A-A860-B7EA8FFEFE9B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{FE4E5C60-2177-48E5-906B-843B5FA09DFD}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0FC23640-140B-4547-B415-0260CDC88457}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{ACBB717B-4F5C-46CD-8E0D-2E4A1BDF357F}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{6600F08D-2E66-4504-B240-E9E3D456FAB6}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{F8511904-9B27-49EE-8A5F-B40667B37B46}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{D9D02AAF-EDF0-4309-9DA9-5ADEEA93E04C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{D3FA0E7C-FED8-4B47-88CA-565CEA5A2D29}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{3FDF3471-357F-4EE2-93D1-6A3B8FFAF021}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{84AC4178-DF94-4B9F-B63E-91306FF60868}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{0804E4C6-F89B-41D5-8EC2-C6870EA4C5AE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1325,7 +1325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688CB572-5CC2-45BE-A7FB-ADE214AA531B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6548095B-9241-4849-B697-86641F6DFDA1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2636,18 +2636,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4C804D24-8042-4CED-B1CB-0BC691F24B58}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C99938B-E646-4465-8683-DE27BD0379B3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{787B70B5-727E-4ABA-8F81-CE4CF544C974}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{63B18662-E8C0-47D6-B453-4D6683683DED}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1DF2D0BD-9FE2-43DB-BB04-A6E4BB908EF3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{132FB46D-6186-4BCB-80D1-66704CBF158C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{077C233B-55B9-45B8-9A8C-66A6462586E2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6E705572-86CC-4BB2-9BDA-420749671FB0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{420A99DE-FF84-490F-99F7-B718A546B574}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B7A21053-BE70-45F5-8999-D3F37A5129E6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F7B34D82-6CC3-4160-88AF-F18285E48C59}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{689D246F-8FD9-4C42-A899-E2F5A7789CA3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8609049F-F1CB-44B4-B249-56D9E1C6871B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0F1A347-6CF7-4340-A136-EF777E6DE092}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{907C6683-1B91-4A54-9736-FFA86C2BCFD2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5A89B4C6-A932-4E88-B386-81DF2060925C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E0E3B209-40BF-4899-9C03-0FD5BD160600}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{487F05AD-9550-4B2B-BFBC-6519A31BD7EB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{976833EA-BB92-4CD7-ACEA-E1C46B0252F2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DAF44D61-2B93-42D0-B45D-E6AF523650B7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2326F083-B45F-4D08-91F1-806EA91FC0BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{13A641CF-5FF4-4E1E-8AC3-92156AFFAFE0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF90C416-85B4-4EBF-97C6-742EA45AB0B0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{428A9D8D-FEA9-41BD-8071-8D711051D701}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2660,7 +2660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51252F10-D4F5-4D95-8712-18D96BFD51F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2978050C-4EC8-4976-8B5B-84677A0C6B0A}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3944,18 +3944,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97AD5494-2EA1-4208-BC54-8D85258ED16B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{46195011-423A-44B5-9DAB-E0EA13446A8D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8E206028-3229-4B5A-87CF-402F04DBA20D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2FE64973-5D14-4FA5-81EB-621A363A26CB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8FD5E811-F8CA-4B8E-BA4B-F7A7BDA0CA68}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8812106A-2104-43F5-92CB-CB43DEEDC30B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0982B788-4F90-4210-AD99-00F860E681DB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB3002D0-9A84-4CD4-A519-DEEEAC0AC9B7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B1A2448D-8EAF-4280-8CA8-B0289F746EF1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{56D35DFD-BBF7-409E-9B6E-E49262CEDD86}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D42D5F3E-D373-4DB7-B957-CAE7ABD988A9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE90AF85-7215-46FB-80B1-580639E285B9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7274C31-E1BC-4E98-BDE2-318F5E77917B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1D9FDEFA-6AE3-4968-8C32-18C0C69183F4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E59E9FEC-7428-4338-960A-F5EA17F64CC8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{81027D20-B653-44D3-8577-3B88294A9A89}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8331D8CA-877D-4917-B8F1-08FA891A2845}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{681AA386-0C3E-409C-AA11-AC705AB26691}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9CC16F1F-F749-4956-9BC0-14CB6F1C3133}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2087FD7A-851A-4BD8-B122-BDB70ADAC123}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{21D0FF4B-EDAC-4BE8-BE1B-CBA5A8B3F81A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{52799A72-BCA9-465D-9E2A-5C8D963F98FC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0101D97D-A19C-47E0-BE6D-E6E8B6EF29A9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{63CAE1D1-023A-48F5-8003-23C67CFA96D3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3968,7 +3968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEB8A2F-6D82-43A9-B9E5-6D8C7B0639B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3930A1-F840-4FE7-AADD-BE219E4B0D9E}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5248,18 +5248,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{87134BE8-B6DB-4048-9C7B-A5D3D45F439D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31CD9D24-AF68-4A7A-8089-EA607DEF6383}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{47DAC7CC-CA4E-4CC5-9080-6892B12BC3E6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B4839745-B038-454D-B6F5-ED5E9E3A490B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B71E5DA5-7204-4441-81AB-D307193F218E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DA87483F-410C-480F-8952-225112A85818}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{078F4EB9-F3C9-48ED-B4B4-B3C383427674}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{140FCF81-B355-444A-A33A-295DDA557096}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E3AF55E9-A20A-4C0E-B240-427D5DB28E6A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F85F1767-16A8-4990-9A46-6D7139FAD233}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{27D889B4-3994-445A-B591-C9452CB09E08}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{80317FA7-85F8-4F11-AA40-E6C552B1446A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{630523FD-C3E2-4DAF-BDD5-75411D80A77F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9257B34E-B032-45C8-8919-0FB0FFA35F3B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1CF374C6-2D9E-4451-959C-FCCBBC1E01B0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4E2BE2BD-BEC6-4282-9A2E-A7DB086FF34A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{82BA9826-AE0F-4C52-99FD-BAE13F6135BE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CBB52863-7C93-4344-841C-55C28B09F714}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{45012E04-966F-4BD3-B6E8-5301EF93EAC6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{123DB5F8-1D50-4D8C-8E2E-3CA8D16ED913}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8BF2DE52-A0B0-4E28-AA35-06429BCE360D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A900A243-2A21-407D-BCEB-298A641BE2C6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6F942D50-EF9D-4601-8361-C913AEF45738}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{86E4D211-8C15-43CB-B0DC-FD8AF5ABEA0F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5272,7 +5272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FCD2EA-3835-4C7E-8910-659C4E7E4C83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2AAF91-0717-407A-B778-B5FA34E0ED6D}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6540,18 +6540,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D5E34BFA-53E2-4A6D-9155-47B2A115F47E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F86171F1-63A8-42FD-A2B8-ECDFCF321AAF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6D1F3597-81FE-4ACB-B115-67AA5C37F408}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1A92E3EE-0EB7-4D03-8F37-71258EB8ECBE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{20AE205B-001C-407C-8FE0-6BB1F287C6F2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2D57CD56-B6C9-4CD8-ADB4-F179507B73C5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E4FB460E-1282-4BB8-8895-F4E24248C3B6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7D74C11-F634-4C55-97BC-A08897808C42}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8C7C877A-A26F-4B63-8487-0B41C32ABF77}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{028E0AB6-C4EA-4B75-B4F2-27B5917D2438}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6D6B62F1-0181-44BC-8363-21961C30929E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8C47E023-DDB3-4510-8196-30BF227AC532}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42404710-AC4B-4971-A432-213218ECAD3B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF01DDE6-FFF9-433D-BF77-4B9764E075FE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{747499DB-DCE5-4C30-81FB-9FFB265417CD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6AF6F058-B5D9-47C6-93B8-D57CD5D673D4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7DE27A61-919A-4E79-882A-781DF55BE7D7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{611D7870-589B-44BB-97ED-C17558B1E2ED}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{890369CF-518D-4357-A9AE-B83278BB5449}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{44AC253B-FCEC-4FEF-A7B3-6CF86B2903A1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0708F2D3-CFAC-4AAD-B40B-E2BB5AB602D5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DEEDA303-5262-438D-9A5D-7A97C48F06A3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{210AB5A1-6127-4086-92A1-09D808C318BB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8675AF7D-C609-4D16-B7CB-D2463B0972F9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6564,7 +6564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A91E79-75A3-4B8A-9210-13EEF5DF83FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E3B7BD-EFBA-4F48-8166-CD00C3471F84}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7867,18 +7867,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B7DB894-0442-449F-B1A3-1BA3CFB84052}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1C06591-C91E-4510-86BF-960E2756F673}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{31213AF0-CBE4-4598-A0F6-9528680DA6CE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9BAC8B15-CA3E-477A-B371-522065E74E21}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2F481225-75B1-424E-99E5-9114F54FDBD7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5C2A184A-7F59-4345-A62B-1BE846F0DF4B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A83DAD8C-4FAC-4533-A21C-3B8D23FB2D0A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{158E2CF6-C7FD-4210-9D8B-6CA370A98F8C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{75C4BFB3-5E8D-4227-972E-B1799E785070}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{814FE22C-8FCF-4BED-8219-53A92250CBEE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CEEA8E09-B012-4F37-BE0D-A19C68B6A6AE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B1BDED69-CA93-441F-96E0-D0998FC63FED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{88C9E835-A5A0-44E5-B6FB-5FAA36A187EE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{70B12DAC-B05E-4FFC-AD7B-E9C94D994D79}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{13321B3D-C543-4522-8C35-9F0144EB69AB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B5F4585E-D9A7-4B89-A8B8-8BA6B4E739A9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5E1A1B3B-08D9-45B4-B6A7-E7D41B033EFB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{83E30A7C-94AD-4B4B-B1FC-8BF0209BA6B4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F14ACC8C-0554-460C-8CBA-C1098530F380}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CAD8AA63-46EE-42AC-AD9F-F78BCB3B21A2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{352714F4-AC57-4F47-BC62-478DA0906C36}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4A68DFBD-0AA9-4177-82FC-8CBF3F0AC1F9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE39ED10-6837-4B17-9C86-D6034D271E49}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D79B8ABE-8DCC-499B-9084-173D2CB96D34}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7891,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB43B99-F1FE-4CE9-834D-712FDF45758E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225CBA69-8E5A-4EFE-9E34-DE30A0B8C2EE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9194,18 +9194,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4BB9C92-8C2E-484D-9520-110926040617}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE4904E8-3663-47EA-AC11-CE0724C7B1B4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{81EF27B9-8924-4964-A759-7DAE7C242519}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AFDE1E28-E038-459E-937C-27EC22B2E195}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C59396A0-A811-43C2-BFB9-5B71A1219405}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB8FBECB-6C10-466F-B2EA-A8CC0D70A70A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E436E261-32AF-40EB-965F-4B91616D615B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F6F6B2D-8D52-4D57-91C5-6E0E74D535A5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C39C5491-CD6A-4973-BC73-234F3E859B48}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{07C1F087-06D4-4EB4-8942-C6CB5BA0D3D6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3DA6BA1C-632B-457E-A910-7A24A6272A52}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3AB24472-A016-4A1D-A92A-44DCE0646574}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27EEB7F1-31DF-4544-80AA-2EDC570BCA60}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{191CB666-9F4B-4765-B533-378F0248B63A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{30FAC932-7D9F-4DEE-9D9B-6E53B6E33166}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D56E2221-CFB7-4EC4-9435-E675CFE43FD2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D5646BF1-C36E-4A0D-9B31-22155725934C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{90151565-0B06-4ECC-A2A6-333E2EBB9E47}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CB35D7BB-9158-48A7-B0C0-FB3FFAC89967}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35F4342E-21CF-4C60-8A40-4E3DC46DD38C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DC1386FE-65D1-441E-BDDF-94EA103FA11B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A571279B-F01D-4FC4-A0EC-B08068419290}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9EE61BA-81C2-46B9-93E0-663BFE78009E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7DCDE2E7-ECC0-4F79-BE3B-98701F06EA0F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9218,7 +9218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD30980-BFB4-45C6-A880-081155D6D940}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1DF781-C398-4F6B-A1C8-9A0A75927A5C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10521,18 +10521,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{609F952D-3C2C-4C9E-9442-D32707D7E9A9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5671459-6EC0-4F61-B54B-6151421BFA87}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0408AE2C-B4FC-4EB0-B1C2-34B99FA2A3C5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4FC7B009-0D3F-4B40-A210-E5BBD4B7D74A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D0BA645C-246D-4961-A35B-282310B9EC35}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{61856F1F-8EC1-41BB-BDAA-8706BDF2A8FD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80731F8B-D23D-4F7D-AF3C-43278C464930}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{45E70689-C927-4386-9212-76765F8E7CF0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AE3520B6-7AB4-42D6-A164-79F865B405C6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FF583AF1-4F04-4A10-BAE9-B7D20584E598}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D7870204-14E1-4D3E-B4B1-DBC61F9E2134}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6445BBD8-BD0C-4F58-9782-03B39D688A62}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{87763DA4-FDCE-43B5-B16E-A67F2C389C5B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C73E9EC1-7B26-4E47-8B90-0E06AE99E3E5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{56B9ADC9-73C0-48EA-A619-D51CD92319AF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4F55314C-CB44-4505-9DB5-5EEC2C4DD1DF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FFD70DEA-35A1-4606-9E74-4C2EA6501A0B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B8591D6-1C41-4B22-837B-A500E9B3E4BC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{35D89115-8A0B-434B-936F-5A14E7E697B7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{079744A7-FFD0-4F28-B386-EF45DF5951B2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9E3A35AE-0120-4A9A-B4FC-4579951A0D9F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1E9AD794-02FF-44DE-85D7-CA0ADB390D1F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDE1C4CC-3387-4802-9383-A8A9607228C2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A981D867-BF07-4D82-A546-847ADE492BFD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10545,7 +10545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69163C10-59D1-4EAD-B9E8-DF9C5BFBFFEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BAF808-E38B-4D0D-A261-44476769C6CD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11844,18 +11844,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B5E08054-6521-4976-92FD-3025863E4266}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42989DF7-7B34-4495-862B-BEDE00568FC8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B63F4E5C-68F1-48AB-90EC-9D4DF010FA2C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DEE7F77C-A8C3-4071-920A-26F09BFDF109}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9D6CF334-F4AB-4D15-8CC6-D26924A42C42}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{30DF1DA6-06AC-4BD6-B3FA-E9863F9F4C99}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D66282D-FC35-404F-89F9-45CDE11ED8DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DADA2C4F-3980-4EED-8F50-CC06DCBD3473}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B2C2CFDF-7E89-4B57-BA64-5A72AFE73D30}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{953A850D-7FF3-4DED-BC39-7807E63F166D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1601D3A0-F154-4FA3-8424-7F7200EB1A18}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{443159E6-BD48-4F69-ABD1-620C44290A91}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8CA6AB62-07AC-438E-9DAC-FF7DA3F2FB53}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB369F26-780D-4580-AF8E-68AC8530B6E3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AA181E68-2A0B-4FF8-8D24-E313B034506C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5F1BBCDA-F158-4BDE-A4C8-6FCB62DD82EE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8E9C7501-BBD2-4356-91A0-EE3ADBE35293}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E6B5F048-EECD-452C-860D-4BF032C9B3E1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7DFB1AF-637D-4EFD-A8C8-85C196CDB6EC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35779F69-5563-4243-9B83-4B5EBD838C15}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D5CBBB74-D470-4EA5-9446-650512D6B75B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4215A17B-D49F-4200-A724-C0FF846B9123}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F25C575-C2F9-45C7-A62E-3D0A707CCDFD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B32E479B-1CC1-4117-8662-461177C35E6A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11868,7 +11868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7883EE-BDBB-4DBB-B49B-F2EF3105FE5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8241D5D-1C62-44AE-BCF2-C84DBB2FAC89}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13167,18 +13167,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D03F6CC-B90E-4FB6-9243-64CB74D1A217}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04F0B373-5EC7-4FB7-99C1-B9C2F6E7EB9E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B9E6ACD8-EC5B-46BE-B564-C6EFF4A11659}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{89BFF6EC-36F5-4560-BA9D-57A0BC662C1D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5CF1F470-8AE6-4072-8E6A-322D2B692982}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F36E5D62-0467-4AB5-A406-B42CC84667C2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03F5B734-3273-4869-9F36-269F8F333C51}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D477C7C7-1124-469A-83C9-653C906B7C14}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EFAA88E2-E199-46D3-944F-666B1052DDC3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C7561F81-56C9-43F0-BC09-A27DD1378196}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D4C28243-29D4-4FE3-8279-98003A4DA021}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{34E6B88F-2558-413D-9CC5-7B1073781D4B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA95E8BB-E0F2-4059-BE0C-2DEE0B55EC21}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C58D6278-DA03-4292-9873-D4461F733852}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5CD4F8D8-6F19-4C44-B20A-36CF091D0768}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CB1D3801-D751-405E-9BF6-051C110A179C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6EDA2CC1-8DFB-4A5C-8F45-8FD182E22104}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C2F338D5-8C22-4A16-8710-F4AAD5361DD7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{898D0838-9092-4051-A111-97F78398146A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7AA60846-28F2-446E-A627-CF1F02D9C041}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EDBC8C02-D052-4226-B8A3-1D04F760B34C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A3F5DA34-489F-4DFD-A9BE-7A50C6CA147D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E593698-9038-402F-8E12-9BB1693954EE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A3F1F642-1450-4027-B0D7-8EEA69C9EEC5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13191,7 +13191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EA1937-5006-4F60-969B-792F1D38BEFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241B3487-7D9A-4A8F-A38F-F4489C15AE50}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14488,18 +14488,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C42194B-F931-4E1A-B186-7E594A9E7FD9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7DD8D2AF-500A-44DE-832B-B5D5A0C44E18}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{86E919E2-EDDE-4313-B3C7-F11B3695B391}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B7026198-260B-4153-A351-84EEA7681720}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75BE6C3C-09FA-4411-82AB-FF1616455DB5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{48434AB8-FC60-4685-9624-709B3F33C8B4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B750CCCF-C9CE-477D-AFF4-C53C3DA0E81A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF8F982D-4C32-4D0E-8529-B0E4BB05F5DC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CC07A767-03A1-4F2B-9B0D-E93E21CB26DC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2B10CFF2-DADF-49DE-9B75-F599A134618D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E8A668F8-EF50-46FE-9C2E-170EB33A0576}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{65BF1658-8A9E-4916-9C91-69519A214CD9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{68CD60EB-7470-4F84-A634-2599168522F9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A617803A-71FC-4BFA-8C03-D5E16323D320}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5886C8F1-B716-43CD-A832-2760CF97AA82}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C18DE528-AF8D-4BA5-9228-B444E33AB858}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2234925E-3310-4A9C-A770-7992AFE4AA33}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{01924438-D49C-4C93-B79E-EEC14D5C3136}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A53225F-90CD-4613-986A-C3EC69FA014B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{820AB8AF-E697-4B42-97B9-5224FCDA4424}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{994B9000-117C-4E4F-911E-9C9190AEC7E4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4017116E-BF1F-4064-850F-CDFAB40CF33C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{01E88C26-4683-4832-80DE-9D0B88348201}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D1C73B76-7ED8-4A5D-9B2A-A637F64725D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14512,7 +14512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C431C0D-E537-425D-9387-1ECACDBB11A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB9A37E-6515-4ED8-B95A-3663D0BF6C5A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15811,18 +15811,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E6004025-F7BB-470B-91A2-1FD13DD891C9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B47A8029-1BE6-42FD-9EC5-A327FF411BF5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CCCF204A-9A6C-474F-861C-3746472718C6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C8520D96-A84A-46BD-849F-8DE52562D1F2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C895CDF8-2E25-44F3-AF91-4A807DAACE4C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{06548C08-430A-451F-8CD4-CFF0E94AC19A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F2D4C96E-4302-4E3A-9C0C-B91513003F68}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0E3D8A29-B636-4D83-AA18-C6C2BDF24081}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2A667B47-2D8E-4B06-82D1-F819EA708243}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6DEDDFF2-1E0E-4081-A58D-CED88D826802}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC03BC55-1040-4D57-AD91-419BA9CCF6A4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{35169948-6611-43FF-B8CB-82A6614E4745}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{49906E62-CC5C-4665-AE72-F1EE0B71E189}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE79EA20-188A-405C-BA68-34C688460004}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C319C2A1-A0B7-4284-B0FD-6814CF1C2D82}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{30E95986-8EF0-42AD-B560-2933F5F51F66}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E639BE44-9FED-4AD0-BF2B-D2EEE95CCBB9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C6E60C6E-E856-4D75-B211-69C5C6D5F891}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CBDBFC37-B205-4487-82E6-1EEA9686D207}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{820C8B4D-2C36-42B8-95FB-8CD9A1D555D3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{385AFF1E-AC6E-4676-8A01-98C73877E4E8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{68B3E3AD-30E3-435E-B4A1-914627469247}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7B6C1FCC-141C-4CE2-A274-6A59DCFF9F26}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7AEC3F51-FA38-49D8-8D2C-0EF70D7CCB6C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15835,7 +15835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D115AFE-6CD2-40A3-8CE4-7ED3C9ABB364}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1D8146-ABBF-4FD2-9400-B73B3E7C46F7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17130,18 +17130,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{409B89C0-673F-4DB0-8849-8FB44E2CC5B7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{24D23A9B-269C-4643-A4F0-9E9F3F03230C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B76F072E-9080-4D06-BF58-A63269F216E0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{58192B8E-6F1D-4767-B844-14D22CA8DB07}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{359B16C5-FDEE-4C07-B883-933B47A207C0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2F93800D-EFCA-4C30-A2F1-668EE0445EAF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{27B53C10-4E09-44D6-AB75-F63A21B4BD28}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4018DB9F-4A02-434D-A506-90CA08324A30}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D4BA78CE-E32E-485C-B54C-90ABF539018F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2A4F7347-6089-44C4-9907-32FB4B23A7BC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B5CB53F4-1C78-43D8-94BC-B2604D931B4F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2D067D1E-C2F8-4420-801D-E75388A8C1A0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CDC58C47-9358-4FCF-BB72-4B49D3E130FE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ED8F0E9D-1DAD-4627-B3E6-652CC19F3CF6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ECBCAA8A-8541-4B30-9EFE-EC9B9ACE8BCB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A17BBB9D-69ED-4EDA-96F9-5E8797A5DCA1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D48ED47-8348-47FE-AA18-4BCF7BAAADAD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{353D00DE-7D72-450D-B31D-21D4F4D898B5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE6B9B36-24C3-44DB-ABFE-001DEBF37D4F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C6901C7-21C0-4611-915D-F04C8784BB62}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A91BFD99-EF45-461A-92F8-B722BD0A75E1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F0E92114-87AE-49BF-A4A1-8B3DD090018B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F16E091-174A-4E07-A77A-01EF90F40F25}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{87041B38-0BB7-489C-BBC0-6B660C26CCAE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
